--- a/Excel.output.xlsx
+++ b/Excel.output.xlsx
@@ -544,7 +544,7 @@
         <v>Обувь</v>
       </c>
       <c r="J2" t="str">
-        <v>image1,image2</v>
+        <v>https://cdn.poizon.com/image1.png,https://cdn.poizon.com/image2.png</v>
       </c>
       <c r="K2" t="str">
         <v/>

--- a/Excel.output.xlsx
+++ b/Excel.output.xlsx
@@ -559,7 +559,7 @@
         <v>15000</v>
       </c>
       <c r="Q2" t="str">
-        <v>RUR</v>
+        <v>RUB</v>
       </c>
       <c r="R2" t="str">
         <v>01.01.2020</v>
@@ -684,7 +684,7 @@
         <v>15000</v>
       </c>
       <c r="Q3" t="str">
-        <v>RUR</v>
+        <v>RUB</v>
       </c>
       <c r="R3" t="str">
         <v>01.01.2020</v>
